--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="188">
   <si>
     <t>作者</t>
   </si>
@@ -76,307 +76,328 @@
     <t>备注</t>
   </si>
   <si>
+    <t>许国</t>
+  </si>
+  <si>
+    <t>≈1537</t>
+  </si>
+  <si>
+    <t>与友人论学书</t>
+  </si>
+  <si>
+    <t>致书Y</t>
+  </si>
+  <si>
+    <t>许文穆公全集二十卷</t>
+  </si>
+  <si>
+    <t>与友人论时政书</t>
+  </si>
+  <si>
+    <t>岳正</t>
+  </si>
+  <si>
+    <t>代张某献胡宗伯书</t>
+  </si>
+  <si>
+    <t>类博稿十卷附录二卷</t>
+  </si>
+  <si>
+    <t>答归德徐晟书</t>
+  </si>
+  <si>
+    <t>答Y书</t>
+  </si>
+  <si>
+    <t>跋山谷书</t>
+  </si>
+  <si>
+    <t>跋鲜于太常书</t>
+  </si>
+  <si>
+    <t>朱椿</t>
+  </si>
+  <si>
+    <t>与全？老仙书</t>
+  </si>
+  <si>
+    <t>献园睿制集十七卷</t>
+  </si>
+  <si>
+    <t>罗大紘</t>
+  </si>
+  <si>
+    <t>送别张怀初姊丈之任</t>
+  </si>
+  <si>
+    <t>紫原文集十二卷</t>
+  </si>
+  <si>
+    <t>余棐</t>
+  </si>
+  <si>
+    <t>≈1496</t>
+  </si>
+  <si>
+    <t>与林四书</t>
+  </si>
+  <si>
+    <t>率峰先生遗稿四卷</t>
+  </si>
+  <si>
+    <t>寄林庚书</t>
+  </si>
+  <si>
+    <t>读汉书</t>
+  </si>
+  <si>
+    <t>曹学佺</t>
+  </si>
+  <si>
+    <t>≈1573</t>
+  </si>
+  <si>
+    <t>答毕见素书</t>
+  </si>
+  <si>
+    <t>毕懋良</t>
+  </si>
+  <si>
+    <t>翠娱阁评选曹能始先生小品二卷</t>
+  </si>
+  <si>
     <t>罗伦</t>
   </si>
   <si>
-    <t>在告与三閤老</t>
-  </si>
-  <si>
-    <t>致书Y</t>
-  </si>
-  <si>
-    <t>se</t>
+    <t>与门人书</t>
+  </si>
+  <si>
+    <t>cd</t>
   </si>
   <si>
     <t>一峰先生文集</t>
   </si>
   <si>
-    <t>在告与崔冡宰</t>
-  </si>
-  <si>
-    <t>崔恭</t>
-  </si>
-  <si>
-    <t>与李賔之</t>
+    <t>奉谢大韶先生书</t>
+  </si>
+  <si>
+    <t>谢一夔</t>
+  </si>
+  <si>
+    <t>复张都宪书</t>
+  </si>
+  <si>
+    <t>张瓒</t>
+  </si>
+  <si>
+    <t>与眀三叔书</t>
+  </si>
+  <si>
+    <t>罗明</t>
+  </si>
+  <si>
+    <t>复丘学正书</t>
+  </si>
+  <si>
+    <t>邱濬</t>
+  </si>
+  <si>
+    <t>复进贤吕大尹书</t>
+  </si>
+  <si>
+    <t>吕声</t>
+  </si>
+  <si>
+    <t>复寳宁李太守书</t>
+  </si>
+  <si>
+    <t>李直</t>
+  </si>
+  <si>
+    <t>与府县言上中户书</t>
+  </si>
+  <si>
+    <t>与族叔谦益先生书</t>
+  </si>
+  <si>
+    <t>罗谦益</t>
+  </si>
+  <si>
+    <t>戒族人书以上□新增</t>
+  </si>
+  <si>
+    <t>与张廷芳书</t>
+  </si>
+  <si>
+    <t>张廷芳</t>
+  </si>
+  <si>
+    <t>与刘显仁书二首</t>
+  </si>
+  <si>
+    <t>刘忠</t>
+  </si>
+  <si>
+    <t>与何惟一</t>
+  </si>
+  <si>
+    <t>何纯</t>
+  </si>
+  <si>
+    <t>与郑御史</t>
+  </si>
+  <si>
+    <t>与夏止菴宪副</t>
+  </si>
+  <si>
+    <t>夏寅</t>
+  </si>
+  <si>
+    <t>陈献章</t>
+  </si>
+  <si>
+    <t>与西崖李学士一一首</t>
   </si>
   <si>
     <t>李东阳</t>
   </si>
   <si>
-    <t>与刘用光</t>
-  </si>
-  <si>
-    <t>刘煊</t>
-  </si>
-  <si>
-    <t>复胡提学书</t>
-  </si>
-  <si>
-    <t>答Y书</t>
-  </si>
-  <si>
-    <t>胡荣</t>
-  </si>
-  <si>
-    <t>与周时可书</t>
+    <t>白沙子全集</t>
+  </si>
+  <si>
+    <t>与邓督府二首</t>
+  </si>
+  <si>
+    <t>邓廷瓒</t>
+  </si>
+  <si>
+    <t>与金都宪一首</t>
+  </si>
+  <si>
+    <t>金泽</t>
+  </si>
+  <si>
+    <t>与沈都宪一首</t>
+  </si>
+  <si>
+    <t>沈季文</t>
+  </si>
+  <si>
+    <t>与朱都宪三首</t>
+  </si>
+  <si>
+    <t>朱英</t>
+  </si>
+  <si>
+    <t>与刘方伯东山先生</t>
+  </si>
+  <si>
+    <t>刘大夏</t>
+  </si>
+  <si>
+    <t>复彭方伯一首</t>
+  </si>
+  <si>
+    <t>彭谊</t>
+  </si>
+  <si>
+    <t>与金方伯一首</t>
+  </si>
+  <si>
+    <t>金绅</t>
+  </si>
+  <si>
+    <t>复陈方伯二首</t>
+  </si>
+  <si>
+    <t>陈濂</t>
+  </si>
+  <si>
+    <t>与熊方伯一首</t>
+  </si>
+  <si>
+    <t>熊绣</t>
+  </si>
+  <si>
+    <t>与陶方伯三首</t>
+  </si>
+  <si>
+    <t>与欧总戎一首</t>
+  </si>
+  <si>
+    <t>欧信</t>
+  </si>
+  <si>
+    <t>复张东白内翰一首</t>
+  </si>
+  <si>
+    <t>张元祯</t>
+  </si>
+  <si>
+    <t>与贺东恭黄门二首</t>
+  </si>
+  <si>
+    <t>贺东恭</t>
+  </si>
+  <si>
+    <t>与吴黄门一首</t>
+  </si>
+  <si>
+    <t>吴仕伟</t>
+  </si>
+  <si>
+    <t>与丘侍御一首</t>
+  </si>
+  <si>
+    <t>与葛侍御一首</t>
+  </si>
+  <si>
+    <t>与邓侍御一首</t>
+  </si>
+  <si>
+    <t>复孙清戎一首</t>
+  </si>
+  <si>
+    <t>复汪侍御一首</t>
+  </si>
+  <si>
+    <t>慰王侍御一首</t>
+  </si>
+  <si>
+    <t>复江右藩宪诸公一首</t>
+  </si>
+  <si>
+    <t>与李白洲宪长六首</t>
+  </si>
+  <si>
+    <t>李士实</t>
+  </si>
+  <si>
+    <t>复陶廉宪七首</t>
+  </si>
+  <si>
+    <t>复林大叅一首</t>
+  </si>
+  <si>
+    <t>林廷賛</t>
+  </si>
+  <si>
+    <t>复赵提学佥宪三首</t>
+  </si>
+  <si>
+    <t>赵瑶</t>
+  </si>
+  <si>
+    <t>复二司诸公状一首</t>
+  </si>
+  <si>
+    <t>复当道诸公一首</t>
+  </si>
+  <si>
+    <t>复周廉宪时可二首</t>
   </si>
   <si>
     <t>周孟中</t>
-  </si>
-  <si>
-    <t>书先府君事略寄陈石斋</t>
-  </si>
-  <si>
-    <t>陈献章</t>
-  </si>
-  <si>
-    <t>奉曹州李冡宰书</t>
-  </si>
-  <si>
-    <t>李秉</t>
-  </si>
-  <si>
-    <t>翁宗海</t>
-  </si>
-  <si>
-    <t>翁晏</t>
-  </si>
-  <si>
-    <t>与谢元吉书</t>
-  </si>
-  <si>
-    <t>谢文祥</t>
-  </si>
-  <si>
-    <t>与陈直夫书二首</t>
-  </si>
-  <si>
-    <t>陈壮</t>
-  </si>
-  <si>
-    <t>与刘素彬书</t>
-  </si>
-  <si>
-    <t>刘彬</t>
-  </si>
-  <si>
-    <t>与门人书</t>
-  </si>
-  <si>
-    <t>cd</t>
-  </si>
-  <si>
-    <t>奉谢大韶先生书</t>
-  </si>
-  <si>
-    <t>谢一夔</t>
-  </si>
-  <si>
-    <t>复张都宪书</t>
-  </si>
-  <si>
-    <t>张瓒</t>
-  </si>
-  <si>
-    <t>与眀三叔书</t>
-  </si>
-  <si>
-    <t>罗明</t>
-  </si>
-  <si>
-    <t>复丘学正书</t>
-  </si>
-  <si>
-    <t>邱濬</t>
-  </si>
-  <si>
-    <t>复进贤吕大尹书</t>
-  </si>
-  <si>
-    <t>吕声</t>
-  </si>
-  <si>
-    <t>复寳宁李太守书</t>
-  </si>
-  <si>
-    <t>李直</t>
-  </si>
-  <si>
-    <t>与府县言上中户书</t>
-  </si>
-  <si>
-    <t>与族叔谦益先生书</t>
-  </si>
-  <si>
-    <t>罗谦益</t>
-  </si>
-  <si>
-    <t>戒族人书以上□新增</t>
-  </si>
-  <si>
-    <t>与张廷芳书</t>
-  </si>
-  <si>
-    <t>张廷芳</t>
-  </si>
-  <si>
-    <t>与刘显仁书二首</t>
-  </si>
-  <si>
-    <t>刘忠</t>
-  </si>
-  <si>
-    <t>与何惟一</t>
-  </si>
-  <si>
-    <t>何纯</t>
-  </si>
-  <si>
-    <t>与郑御史</t>
-  </si>
-  <si>
-    <t>与夏止菴宪副</t>
-  </si>
-  <si>
-    <t>夏寅</t>
-  </si>
-  <si>
-    <t>与西崖李学士一一首</t>
-  </si>
-  <si>
-    <t>白沙子全集</t>
-  </si>
-  <si>
-    <t>与邓督府二首</t>
-  </si>
-  <si>
-    <t>邓廷瓒</t>
-  </si>
-  <si>
-    <t>与金都宪一首</t>
-  </si>
-  <si>
-    <t>金泽</t>
-  </si>
-  <si>
-    <t>与沈都宪一首</t>
-  </si>
-  <si>
-    <t>沈季文</t>
-  </si>
-  <si>
-    <t>与朱都宪三首</t>
-  </si>
-  <si>
-    <t>朱英</t>
-  </si>
-  <si>
-    <t>与刘方伯东山先生</t>
-  </si>
-  <si>
-    <t>刘大夏</t>
-  </si>
-  <si>
-    <t>复彭方伯一首</t>
-  </si>
-  <si>
-    <t>彭谊</t>
-  </si>
-  <si>
-    <t>与金方伯一首</t>
-  </si>
-  <si>
-    <t>金绅</t>
-  </si>
-  <si>
-    <t>复陈方伯二首</t>
-  </si>
-  <si>
-    <t>陈濂</t>
-  </si>
-  <si>
-    <t>与熊方伯一首</t>
-  </si>
-  <si>
-    <t>熊绣</t>
-  </si>
-  <si>
-    <t>与陶方伯三首</t>
-  </si>
-  <si>
-    <t>与欧总戎一首</t>
-  </si>
-  <si>
-    <t>欧信</t>
-  </si>
-  <si>
-    <t>复张东白内翰一首</t>
-  </si>
-  <si>
-    <t>张元祯</t>
-  </si>
-  <si>
-    <t>与贺东恭黄门二首</t>
-  </si>
-  <si>
-    <t>贺东恭</t>
-  </si>
-  <si>
-    <t>与吴黄门一首</t>
-  </si>
-  <si>
-    <t>吴仕伟</t>
-  </si>
-  <si>
-    <t>与丘侍御一首</t>
-  </si>
-  <si>
-    <t>与葛侍御一首</t>
-  </si>
-  <si>
-    <t>与邓侍御一首</t>
-  </si>
-  <si>
-    <t>复孙清戎一首</t>
-  </si>
-  <si>
-    <t>复汪侍御一首</t>
-  </si>
-  <si>
-    <t>慰王侍御一首</t>
-  </si>
-  <si>
-    <t>复江右藩宪诸公一首</t>
-  </si>
-  <si>
-    <t>与李白洲宪长六首</t>
-  </si>
-  <si>
-    <t>李士实</t>
-  </si>
-  <si>
-    <t>复陶廉宪七首</t>
-  </si>
-  <si>
-    <t>复林大叅一首</t>
-  </si>
-  <si>
-    <t>林廷賛</t>
-  </si>
-  <si>
-    <t>复赵提学佥宪三首</t>
-  </si>
-  <si>
-    <t>赵瑶</t>
-  </si>
-  <si>
-    <t>复二司诸公状一首</t>
-  </si>
-  <si>
-    <t>复当道诸公一首</t>
-  </si>
-  <si>
-    <t>复周廉宪时可二首</t>
   </si>
   <si>
     <t>答苏佥宪一首</t>
@@ -1175,8 +1196,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1500,8 +1524,8 @@
   <sheetPr/>
   <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C77"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="D3" sqref="A1:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="16.8"/>
@@ -1581,372 +1605,417 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>19</v>
       </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
       <c r="C2">
-        <v>1500</v>
+        <v>1596</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="N2" t="s">
         <v>23</v>
       </c>
       <c r="O2">
-        <v>7204</v>
+        <v>28182</v>
       </c>
       <c r="P2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>12</v>
+      </c>
+      <c r="Q2">
+        <v>12019</v>
+      </c>
+      <c r="R2">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
-        <v>1500</v>
+      <c r="B3" t="s">
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>1500</v>
+        <v>1596</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F3" s="1"/>
       <c r="N3" t="s">
         <v>23</v>
       </c>
       <c r="O3">
-        <v>7204</v>
+        <v>28182</v>
       </c>
       <c r="P3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>12</v>
+      </c>
+      <c r="Q3">
+        <v>12020</v>
+      </c>
+      <c r="R3">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>1500</v>
+        <v>1418</v>
       </c>
       <c r="C4">
-        <v>1500</v>
+        <v>1472</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="N4" t="s">
         <v>27</v>
       </c>
-      <c r="N4" t="s">
-        <v>23</v>
-      </c>
       <c r="O4">
-        <v>7204</v>
+        <v>23544</v>
       </c>
       <c r="P4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>7012</v>
+      </c>
+      <c r="R4">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>1500</v>
+        <v>1418</v>
       </c>
       <c r="C5">
-        <v>1500</v>
+        <v>1472</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
         <v>29</v>
       </c>
+      <c r="F5" s="1"/>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O5">
-        <v>7204</v>
+        <v>23544</v>
       </c>
       <c r="P5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>7013</v>
+      </c>
+      <c r="R5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>1500</v>
+        <v>1418</v>
       </c>
       <c r="C6">
-        <v>1500</v>
+        <v>1472</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O6">
-        <v>7204</v>
+        <v>23544</v>
       </c>
       <c r="P6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>8021</v>
+      </c>
+      <c r="R6">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7">
-        <v>1500</v>
+        <v>1418</v>
       </c>
       <c r="C7">
-        <v>1500</v>
+        <v>1472</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F7" s="1"/>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O7">
-        <v>7204</v>
+        <v>23544</v>
       </c>
       <c r="P7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7">
+        <v>8025</v>
+      </c>
+      <c r="R7">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B8">
-        <v>1500</v>
+        <v>1371</v>
       </c>
       <c r="C8">
-        <v>1500</v>
+        <v>1424</v>
       </c>
       <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>4013</v>
+      </c>
+      <c r="R8">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="B9">
+        <v>1557</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="N8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8">
-        <v>7204</v>
-      </c>
-      <c r="P8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>1500</v>
-      </c>
-      <c r="C9">
-        <v>1500</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="N9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="O9">
+        <v>28221</v>
+      </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>6057</v>
+      </c>
+      <c r="R9">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="N9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9">
-        <v>7204</v>
-      </c>
-      <c r="P9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>1500</v>
-      </c>
-      <c r="C10">
-        <v>1500</v>
-      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10"/>
       <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10">
+        <v>62297</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>3046</v>
+      </c>
+      <c r="R10">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10">
-        <v>7204</v>
-      </c>
-      <c r="P10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>1500</v>
-      </c>
-      <c r="C11">
-        <v>1500</v>
-      </c>
+      <c r="C11"/>
       <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="N11" t="s">
         <v>41</v>
       </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" t="s">
-        <v>23</v>
-      </c>
       <c r="O11">
-        <v>7204</v>
+        <v>62297</v>
       </c>
       <c r="P11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>4001</v>
+      </c>
+      <c r="R11">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>1500</v>
-      </c>
-      <c r="C12">
-        <v>1500</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12"/>
       <c r="D12" t="s">
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="N12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12">
+        <v>62297</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>4002</v>
+      </c>
+      <c r="R12">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="J12">
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13">
+        <v>131066</v>
+      </c>
+      <c r="N13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13">
+        <v>62344</v>
+      </c>
+      <c r="P13">
         <v>2</v>
       </c>
-      <c r="N12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12">
-        <v>7204</v>
-      </c>
-      <c r="P12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>1500</v>
-      </c>
-      <c r="C13">
-        <v>1500</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13">
-        <v>7204</v>
-      </c>
-      <c r="P13">
-        <v>8</v>
+      <c r="Q13">
+        <v>2027</v>
+      </c>
+      <c r="R13">
+        <v>1113</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>1500</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O14">
         <v>7204</v>
@@ -1957,19 +2026,19 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O15">
         <v>7204</v>
@@ -1980,22 +2049,22 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>1510</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" t="s">
         <v>52</v>
-      </c>
-      <c r="N16" t="s">
-        <v>23</v>
       </c>
       <c r="O16">
         <v>7204</v>
@@ -2006,22 +2075,22 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>1510</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N17" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O17">
         <v>7204</v>
@@ -2032,19 +2101,19 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N18" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O18">
         <v>7204</v>
@@ -2055,19 +2124,19 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O19">
         <v>7204</v>
@@ -2078,19 +2147,19 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N20" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O20">
         <v>7204</v>
@@ -2101,19 +2170,19 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O21">
         <v>7204</v>
@@ -2124,22 +2193,22 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C22">
         <v>1510</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N22" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O22">
         <v>7204</v>
@@ -2150,7 +2219,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <v>1510</v>
@@ -2159,16 +2228,16 @@
         <v>1510</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N23" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O23">
         <v>7204</v>
@@ -2179,7 +2248,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B24">
         <v>1510</v>
@@ -2188,16 +2257,16 @@
         <v>1510</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O24">
         <v>7204</v>
@@ -2208,7 +2277,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <v>1510</v>
@@ -2217,19 +2286,19 @@
         <v>1510</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J25">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O25">
         <v>7204</v>
@@ -2240,7 +2309,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B26">
         <v>1510</v>
@@ -2249,16 +2318,16 @@
         <v>1510</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N26" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O26">
         <v>7204</v>
@@ -2269,7 +2338,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>1510</v>
@@ -2278,16 +2347,16 @@
         <v>1510</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N27" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O27">
         <v>7204</v>
@@ -2298,7 +2367,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B28">
         <v>1510</v>
@@ -2307,16 +2376,16 @@
         <v>1510</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N28" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="O28">
         <v>7204</v>
@@ -2327,7 +2396,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B29">
         <v>1510</v>
@@ -2336,16 +2405,16 @@
         <v>1510</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="N29" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O29">
         <v>28404</v>
@@ -2356,7 +2425,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B30">
         <v>1510</v>
@@ -2365,16 +2434,16 @@
         <v>1510</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N30" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O30">
         <v>28404</v>
@@ -2385,7 +2454,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B31">
         <v>1510</v>
@@ -2394,16 +2463,16 @@
         <v>1510</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="N31" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O31">
         <v>28404</v>
@@ -2414,7 +2483,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B32">
         <v>1510</v>
@@ -2423,16 +2492,16 @@
         <v>1510</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="N32" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O32">
         <v>28404</v>
@@ -2443,7 +2512,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B33">
         <v>1510</v>
@@ -2452,16 +2521,16 @@
         <v>1510</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N33" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O33">
         <v>28404</v>
@@ -2472,22 +2541,22 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B34">
         <v>1510</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N34" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O34">
         <v>28404</v>
@@ -2498,19 +2567,19 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N35" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O35">
         <v>28404</v>
@@ -2521,19 +2590,19 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="N36" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O36">
         <v>28404</v>
@@ -2544,19 +2613,19 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="N37" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O37">
         <v>28404</v>
@@ -2567,19 +2636,19 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="N38" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O38">
         <v>28404</v>
@@ -2590,22 +2659,22 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C39">
         <v>1600</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N39" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O39">
         <v>28404</v>
@@ -2616,7 +2685,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B40">
         <v>1600</v>
@@ -2625,16 +2694,16 @@
         <v>1600</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="N40" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O40">
         <v>28404</v>
@@ -2645,7 +2714,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>1600</v>
@@ -2654,16 +2723,16 @@
         <v>1600</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="N41" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O41">
         <v>28404</v>
@@ -2674,7 +2743,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B42">
         <v>1600</v>
@@ -2683,16 +2752,16 @@
         <v>1600</v>
       </c>
       <c r="D42" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="N42" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O42">
         <v>28404</v>
@@ -2703,7 +2772,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B43">
         <v>1600</v>
@@ -2712,16 +2781,16 @@
         <v>1600</v>
       </c>
       <c r="D43" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="N43" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O43">
         <v>28404</v>
@@ -2732,7 +2801,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B44">
         <v>1600</v>
@@ -2741,16 +2810,16 @@
         <v>1600</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N44" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O44">
         <v>28404</v>
@@ -2761,7 +2830,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B45">
         <v>1600</v>
@@ -2770,16 +2839,16 @@
         <v>1600</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N45" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O45">
         <v>28404</v>
@@ -2790,7 +2859,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B46">
         <v>1600</v>
@@ -2799,16 +2868,16 @@
         <v>1600</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N46" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O46">
         <v>28404</v>
@@ -2819,7 +2888,7 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B47">
         <v>1600</v>
@@ -2828,16 +2897,16 @@
         <v>1600</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N47" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O47">
         <v>28404</v>
@@ -2848,7 +2917,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B48">
         <v>1600</v>
@@ -2857,16 +2926,16 @@
         <v>1600</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N48" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O48">
         <v>28404</v>
@@ -2877,7 +2946,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B49">
         <v>1600</v>
@@ -2886,16 +2955,16 @@
         <v>1600</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N49" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O49">
         <v>28404</v>
@@ -2906,7 +2975,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B50">
         <v>1600</v>
@@ -2915,16 +2984,16 @@
         <v>1600</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N50" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O50">
         <v>28404</v>
@@ -2935,22 +3004,22 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B51">
         <v>1600</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="N51" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O51">
         <v>28404</v>
@@ -2961,19 +3030,19 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N52" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O52">
         <v>28404</v>
@@ -2984,19 +3053,19 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="N53" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O53">
         <v>28404</v>
@@ -3007,19 +3076,19 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="N54" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O54">
         <v>28404</v>
@@ -3030,19 +3099,19 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D55" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N55" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O55">
         <v>28404</v>
@@ -3053,19 +3122,19 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D56" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N56" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O56">
         <v>28404</v>
@@ -3076,19 +3145,19 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D57" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="N57" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O57">
         <v>28404</v>
@@ -3099,19 +3168,19 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D58" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="N58" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O58">
         <v>28404</v>
@@ -3122,19 +3191,19 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D59" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F59" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N59" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O59">
         <v>28404</v>
@@ -3145,19 +3214,19 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D60" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="N60" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O60">
         <v>28404</v>
@@ -3168,19 +3237,19 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D61" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="N61" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O61">
         <v>28404</v>
@@ -3191,22 +3260,22 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C62">
         <v>1700</v>
       </c>
       <c r="D62" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N62" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O62">
         <v>28404</v>
@@ -3217,7 +3286,7 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B63">
         <v>1700</v>
@@ -3226,16 +3295,16 @@
         <v>1700</v>
       </c>
       <c r="D63" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F63" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="N63" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O63">
         <v>28404</v>
@@ -3246,7 +3315,7 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B64">
         <v>1700</v>
@@ -3255,16 +3324,16 @@
         <v>1700</v>
       </c>
       <c r="D64" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="N64" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O64">
         <v>28404</v>
@@ -3275,7 +3344,7 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B65">
         <v>1700</v>
@@ -3284,16 +3353,16 @@
         <v>1700</v>
       </c>
       <c r="D65" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="N65" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O65">
         <v>28404</v>
@@ -3304,7 +3373,7 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B66">
         <v>1700</v>
@@ -3313,16 +3382,16 @@
         <v>1700</v>
       </c>
       <c r="D66" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="N66" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O66">
         <v>28404</v>
@@ -3333,7 +3402,7 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B67">
         <v>1700</v>
@@ -3342,16 +3411,16 @@
         <v>1700</v>
       </c>
       <c r="D67" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N67" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O67">
         <v>28404</v>
@@ -3362,7 +3431,7 @@
     </row>
     <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B68">
         <v>1700</v>
@@ -3371,16 +3440,16 @@
         <v>1700</v>
       </c>
       <c r="D68" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F68" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="N68" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O68">
         <v>28404</v>
@@ -3391,7 +3460,7 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B69">
         <v>1700</v>
@@ -3400,19 +3469,19 @@
         <v>1700</v>
       </c>
       <c r="D69" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="J69">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O69">
         <v>28404</v>
@@ -3423,7 +3492,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>1700</v>
@@ -3432,16 +3501,16 @@
         <v>1700</v>
       </c>
       <c r="D70" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N70" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O70">
         <v>28404</v>
@@ -3452,7 +3521,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B71">
         <v>1700</v>
@@ -3461,16 +3530,16 @@
         <v>1700</v>
       </c>
       <c r="D71" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F71" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="N71" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O71">
         <v>28404</v>
@@ -3481,7 +3550,7 @@
     </row>
     <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B72">
         <v>1700</v>
@@ -3490,16 +3559,16 @@
         <v>1700</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E72" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F72" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N72" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O72">
         <v>28404</v>
@@ -3510,7 +3579,7 @@
     </row>
     <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B73">
         <v>1700</v>
@@ -3519,16 +3588,16 @@
         <v>1700</v>
       </c>
       <c r="D73" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="N73" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O73">
         <v>28404</v>
@@ -3539,7 +3608,7 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B74">
         <v>1700</v>
@@ -3548,16 +3617,16 @@
         <v>1700</v>
       </c>
       <c r="D74" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="N74" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O74">
         <v>28404</v>
@@ -3568,7 +3637,7 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B75">
         <v>1700</v>
@@ -3577,16 +3646,16 @@
         <v>1700</v>
       </c>
       <c r="D75" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="N75" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O75">
         <v>28404</v>
@@ -3597,7 +3666,7 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B76">
         <v>1700</v>
@@ -3606,16 +3675,16 @@
         <v>1700</v>
       </c>
       <c r="D76" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F76" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="N76" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O76">
         <v>28404</v>
@@ -3626,7 +3695,7 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B77">
         <v>1700</v>
@@ -3635,16 +3704,16 @@
         <v>1700</v>
       </c>
       <c r="D77" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F77" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="N77" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O77">
         <v>28404</v>
@@ -3655,22 +3724,22 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>1700</v>
       </c>
       <c r="D78" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="N78" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O78">
         <v>28404</v>
@@ -3681,19 +3750,19 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F79" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N79" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O79">
         <v>28404</v>
@@ -3704,19 +3773,19 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D80" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F80" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N80" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O80">
         <v>28404</v>
@@ -3727,19 +3796,19 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D81" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F81" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N81" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O81">
         <v>28404</v>
@@ -3750,19 +3819,19 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D82" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F82" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N82" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O82">
         <v>28404</v>
@@ -3773,19 +3842,19 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D83" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="N83" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O83">
         <v>28404</v>
@@ -3796,19 +3865,19 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D84" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F84" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N84" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O84">
         <v>28404</v>
@@ -3819,19 +3888,19 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D85" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F85" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N85" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O85">
         <v>28404</v>
@@ -3842,19 +3911,19 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D86" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F86" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N86" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O86">
         <v>28404</v>
@@ -3865,19 +3934,19 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D87" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F87" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N87" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O87">
         <v>28404</v>
@@ -3888,19 +3957,19 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D88" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F88" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N88" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O88">
         <v>28404</v>
@@ -3911,19 +3980,19 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D89" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F89" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N89" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O89">
         <v>28404</v>
@@ -3934,19 +4003,19 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D90" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F90" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N90" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O90">
         <v>28404</v>
@@ -3957,19 +4026,19 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D91" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F91" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N91" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O91">
         <v>28404</v>
@@ -3980,19 +4049,19 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D92" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E92" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F92" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="N92" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O92">
         <v>28404</v>
@@ -4003,19 +4072,19 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D93" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F93" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N93" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O93">
         <v>28404</v>
@@ -4026,19 +4095,19 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D94" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E94" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F94" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N94" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O94">
         <v>28404</v>
@@ -4049,19 +4118,19 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D95" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F95" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N95" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O95">
         <v>28404</v>
@@ -4072,19 +4141,19 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D96" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F96" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N96" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O96">
         <v>28404</v>
@@ -4095,19 +4164,19 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D97" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E97" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F97" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N97" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O97">
         <v>28404</v>
@@ -4118,19 +4187,19 @@
     </row>
     <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D98" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F98" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N98" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O98">
         <v>28404</v>
@@ -4141,19 +4210,19 @@
     </row>
     <row r="99" spans="1:16">
       <c r="A99" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D99" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F99" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N99" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O99">
         <v>28404</v>
@@ -4164,19 +4233,19 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D100" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E100" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F100" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N100" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O100">
         <v>28404</v>
@@ -4187,19 +4256,19 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D101" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F101" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N101" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O101">
         <v>28404</v>
